--- a/output_report/tong_hop/Bieu do file da tung huan luyen.xlsx
+++ b/output_report/tong_hop/Bieu do file da tung huan luyen.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="20490" windowHeight="7755" activeTab="4"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="20490" windowHeight="7755" activeTab="2"/>
   </bookViews>
   <sheets>
     <sheet name="16" sheetId="1" r:id="rId1"/>
@@ -498,9 +498,6 @@
     <t>72,10</t>
   </si>
   <si>
-    <t>75,46</t>
-  </si>
-  <si>
     <t>78,90</t>
   </si>
   <si>
@@ -619,6 +616,9 @@
   </si>
   <si>
     <t>98,20</t>
+  </si>
+  <si>
+    <t>75,50</t>
   </si>
 </sst>
 </file>
@@ -821,7 +821,6 @@
             <c:showLeaderLines val="0"/>
             <c:extLst>
               <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
-                <c15:layout/>
                 <c15:showLeaderLines val="1"/>
                 <c15:leaderLines>
                   <c:spPr>
@@ -917,11 +916,11 @@
         </c:dLbls>
         <c:gapWidth val="219"/>
         <c:overlap val="-27"/>
-        <c:axId val="768768816"/>
-        <c:axId val="768769904"/>
+        <c:axId val="-1007639440"/>
+        <c:axId val="-1007630736"/>
       </c:barChart>
       <c:catAx>
-        <c:axId val="768768816"/>
+        <c:axId val="-1007639440"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -957,7 +956,6 @@
               </a:p>
             </c:rich>
           </c:tx>
-          <c:layout/>
           <c:overlay val="0"/>
           <c:spPr>
             <a:noFill/>
@@ -1024,7 +1022,7 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="768769904"/>
+        <c:crossAx val="-1007630736"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -1032,7 +1030,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="768769904"/>
+        <c:axId val="-1007630736"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1092,7 +1090,6 @@
               </a:p>
             </c:rich>
           </c:tx>
-          <c:layout/>
           <c:overlay val="0"/>
           <c:spPr>
             <a:noFill/>
@@ -1153,7 +1150,7 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="768768816"/>
+        <c:crossAx val="-1007639440"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -1292,7 +1289,6 @@
             <c:showLeaderLines val="0"/>
             <c:extLst>
               <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
-                <c15:layout/>
                 <c15:showLeaderLines val="1"/>
                 <c15:leaderLines>
                   <c:spPr>
@@ -1387,11 +1383,11 @@
         </c:dLbls>
         <c:gapWidth val="219"/>
         <c:overlap val="-27"/>
-        <c:axId val="768771536"/>
-        <c:axId val="768772624"/>
+        <c:axId val="-1007645968"/>
+        <c:axId val="-1007638896"/>
       </c:barChart>
       <c:catAx>
-        <c:axId val="768771536"/>
+        <c:axId val="-1007645968"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1437,7 +1433,6 @@
               </a:p>
             </c:rich>
           </c:tx>
-          <c:layout/>
           <c:overlay val="0"/>
           <c:spPr>
             <a:noFill/>
@@ -1504,7 +1499,7 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="768772624"/>
+        <c:crossAx val="-1007638896"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -1512,7 +1507,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="768772624"/>
+        <c:axId val="-1007638896"/>
         <c:scaling>
           <c:orientation val="minMax"/>
           <c:min val="60"/>
@@ -1568,7 +1563,6 @@
               </a:p>
             </c:rich>
           </c:tx>
-          <c:layout/>
           <c:overlay val="0"/>
           <c:spPr>
             <a:noFill/>
@@ -1629,7 +1623,7 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="768771536"/>
+        <c:crossAx val="-1007645968"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -1896,7 +1890,7 @@
                   <c:v>75.400000000000006</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>75.460000000000008</c:v>
+                  <c:v>75.5</c:v>
                 </c:pt>
                 <c:pt idx="2">
                   <c:v>75.400000000000006</c:v>
@@ -2622,11 +2616,11 @@
         </c:dLbls>
         <c:marker val="1"/>
         <c:smooth val="0"/>
-        <c:axId val="628132032"/>
-        <c:axId val="628130944"/>
+        <c:axId val="-1007634544"/>
+        <c:axId val="-1007640528"/>
       </c:lineChart>
       <c:catAx>
-        <c:axId val="628132032"/>
+        <c:axId val="-1007634544"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -2753,7 +2747,7 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="628130944"/>
+        <c:crossAx val="-1007640528"/>
         <c:crossesAt val="70"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -2761,7 +2755,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="628130944"/>
+        <c:axId val="-1007640528"/>
         <c:scaling>
           <c:orientation val="minMax"/>
           <c:max val="100"/>
@@ -2876,7 +2870,7 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="628132032"/>
+        <c:crossAx val="-1007634544"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
         <c:majorUnit val="2"/>
@@ -3902,8 +3896,8 @@
         </c:dLbls>
         <c:marker val="1"/>
         <c:smooth val="0"/>
-        <c:axId val="628133664"/>
-        <c:axId val="628139648"/>
+        <c:axId val="-1007633456"/>
+        <c:axId val="-1007632368"/>
         <c:extLst>
           <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
             <c15:filteredLineSeries>
@@ -4044,7 +4038,7 @@
         </c:extLst>
       </c:lineChart>
       <c:catAx>
-        <c:axId val="628133664"/>
+        <c:axId val="-1007633456"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -4104,7 +4098,6 @@
               </a:p>
             </c:rich>
           </c:tx>
-          <c:layout/>
           <c:overlay val="0"/>
           <c:spPr>
             <a:noFill/>
@@ -4171,7 +4164,7 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="628139648"/>
+        <c:crossAx val="-1007632368"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -4179,7 +4172,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="628139648"/>
+        <c:axId val="-1007632368"/>
         <c:scaling>
           <c:orientation val="minMax"/>
           <c:max val="100"/>
@@ -4227,7 +4220,6 @@
               </a:p>
             </c:rich>
           </c:tx>
-          <c:layout/>
           <c:overlay val="0"/>
           <c:spPr>
             <a:noFill/>
@@ -4294,7 +4286,7 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="628133664"/>
+        <c:crossAx val="-1007633456"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
         <c:majorUnit val="5"/>
@@ -4309,7 +4301,6 @@
     </c:plotArea>
     <c:legend>
       <c:legendPos val="t"/>
-      <c:layout/>
       <c:overlay val="0"/>
       <c:spPr>
         <a:noFill/>
@@ -5320,8 +5311,8 @@
         </c:dLbls>
         <c:marker val="1"/>
         <c:smooth val="0"/>
-        <c:axId val="628126592"/>
-        <c:axId val="628127136"/>
+        <c:axId val="-1007639984"/>
+        <c:axId val="-1007638352"/>
         <c:extLst>
           <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
             <c15:filteredLineSeries>
@@ -5462,7 +5453,7 @@
         </c:extLst>
       </c:lineChart>
       <c:catAx>
-        <c:axId val="628126592"/>
+        <c:axId val="-1007639984"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -5589,7 +5580,7 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="628127136"/>
+        <c:crossAx val="-1007638352"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -5597,7 +5588,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="628127136"/>
+        <c:axId val="-1007638352"/>
         <c:scaling>
           <c:orientation val="minMax"/>
           <c:max val="100"/>
@@ -5712,7 +5703,7 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="628126592"/>
+        <c:crossAx val="-1007639984"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
         <c:majorUnit val="5"/>
@@ -9182,8 +9173,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A3:V22"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="M5" sqref="M5"/>
+    <sheetView tabSelected="1" topLeftCell="A13" workbookViewId="0">
+      <selection activeCell="M3" sqref="M3:V11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -9307,25 +9298,25 @@
         <v>125</v>
       </c>
       <c r="P4" s="5" t="s">
-        <v>131</v>
+        <v>130</v>
       </c>
       <c r="Q4" s="5" t="s">
-        <v>136</v>
+        <v>135</v>
       </c>
       <c r="R4" s="5" t="s">
-        <v>143</v>
+        <v>142</v>
       </c>
       <c r="S4" s="5" t="s">
         <v>89</v>
       </c>
       <c r="T4" s="5" t="s">
-        <v>153</v>
+        <v>152</v>
       </c>
       <c r="U4" s="5" t="s">
         <v>65</v>
       </c>
       <c r="V4" s="5" t="s">
-        <v>163</v>
+        <v>162</v>
       </c>
     </row>
     <row r="5" spans="1:22" x14ac:dyDescent="0.25">
@@ -9366,28 +9357,28 @@
         <v>120</v>
       </c>
       <c r="O5" s="5" t="s">
-        <v>126</v>
+        <v>166</v>
       </c>
       <c r="P5" s="5" t="s">
         <v>120</v>
       </c>
       <c r="Q5" s="5" t="s">
-        <v>137</v>
+        <v>136</v>
       </c>
       <c r="R5" s="5" t="s">
-        <v>144</v>
+        <v>143</v>
       </c>
       <c r="S5" s="5" t="s">
-        <v>139</v>
+        <v>138</v>
       </c>
       <c r="T5" s="5" t="s">
-        <v>154</v>
+        <v>153</v>
       </c>
       <c r="U5" s="5" t="s">
-        <v>160</v>
+        <v>159</v>
       </c>
       <c r="V5" s="5" t="s">
-        <v>164</v>
+        <v>163</v>
       </c>
     </row>
     <row r="6" spans="1:22" x14ac:dyDescent="0.25">
@@ -9428,25 +9419,25 @@
         <v>121</v>
       </c>
       <c r="O6" s="5" t="s">
-        <v>127</v>
+        <v>126</v>
       </c>
       <c r="P6" s="5" t="s">
-        <v>132</v>
+        <v>131</v>
       </c>
       <c r="Q6" s="5" t="s">
-        <v>129</v>
+        <v>128</v>
       </c>
       <c r="R6" s="5" t="s">
         <v>124</v>
       </c>
       <c r="S6" s="5" t="s">
-        <v>150</v>
+        <v>149</v>
       </c>
       <c r="T6" s="5" t="s">
-        <v>155</v>
+        <v>154</v>
       </c>
       <c r="U6" s="5" t="s">
-        <v>161</v>
+        <v>160</v>
       </c>
       <c r="V6" s="5" t="s">
         <v>111</v>
@@ -9496,22 +9487,22 @@
         <v>47</v>
       </c>
       <c r="Q7" s="5" t="s">
-        <v>138</v>
+        <v>137</v>
       </c>
       <c r="R7" s="5" t="s">
-        <v>145</v>
+        <v>144</v>
       </c>
       <c r="S7" s="5" t="s">
+        <v>150</v>
+      </c>
+      <c r="T7" s="5" t="s">
+        <v>155</v>
+      </c>
+      <c r="U7" s="5" t="s">
         <v>151</v>
       </c>
-      <c r="T7" s="5" t="s">
-        <v>156</v>
-      </c>
-      <c r="U7" s="5" t="s">
-        <v>152</v>
-      </c>
       <c r="V7" s="5" t="s">
-        <v>159</v>
+        <v>158</v>
       </c>
     </row>
     <row r="8" spans="1:22" x14ac:dyDescent="0.25">
@@ -9555,25 +9546,25 @@
         <v>122</v>
       </c>
       <c r="P8" s="5" t="s">
-        <v>133</v>
+        <v>132</v>
       </c>
       <c r="Q8" s="5" t="s">
-        <v>139</v>
+        <v>138</v>
       </c>
       <c r="R8" s="5" t="s">
-        <v>146</v>
+        <v>145</v>
       </c>
       <c r="S8" s="5" t="s">
-        <v>151</v>
+        <v>150</v>
       </c>
       <c r="T8" s="5" t="s">
-        <v>157</v>
+        <v>156</v>
       </c>
       <c r="U8" s="5" t="s">
         <v>107</v>
       </c>
       <c r="V8" s="5" t="s">
-        <v>165</v>
+        <v>164</v>
       </c>
     </row>
     <row r="9" spans="1:22" x14ac:dyDescent="0.25">
@@ -9614,25 +9605,25 @@
         <v>34</v>
       </c>
       <c r="O9" s="5" t="s">
-        <v>128</v>
+        <v>127</v>
       </c>
       <c r="P9" s="5" t="s">
+        <v>133</v>
+      </c>
+      <c r="Q9" s="5" t="s">
+        <v>139</v>
+      </c>
+      <c r="R9" s="5" t="s">
+        <v>146</v>
+      </c>
+      <c r="S9" s="5" t="s">
         <v>134</v>
       </c>
-      <c r="Q9" s="5" t="s">
-        <v>140</v>
-      </c>
-      <c r="R9" s="5" t="s">
-        <v>147</v>
-      </c>
-      <c r="S9" s="5" t="s">
-        <v>135</v>
-      </c>
       <c r="T9" s="5" t="s">
-        <v>156</v>
+        <v>155</v>
       </c>
       <c r="U9" s="5" t="s">
-        <v>152</v>
+        <v>151</v>
       </c>
       <c r="V9" s="5" t="s">
         <v>112</v>
@@ -9676,22 +9667,22 @@
         <v>123</v>
       </c>
       <c r="O10" s="5" t="s">
-        <v>129</v>
+        <v>128</v>
       </c>
       <c r="P10" s="5" t="s">
         <v>94</v>
       </c>
       <c r="Q10" s="5" t="s">
+        <v>140</v>
+      </c>
+      <c r="R10" s="5" t="s">
+        <v>147</v>
+      </c>
+      <c r="S10" s="5" t="s">
         <v>141</v>
       </c>
-      <c r="R10" s="5" t="s">
-        <v>148</v>
-      </c>
-      <c r="S10" s="5" t="s">
-        <v>142</v>
-      </c>
       <c r="T10" s="5" t="s">
-        <v>158</v>
+        <v>157</v>
       </c>
       <c r="U10" s="5" t="s">
         <v>118</v>
@@ -9738,25 +9729,25 @@
         <v>124</v>
       </c>
       <c r="O11" s="5" t="s">
-        <v>130</v>
+        <v>129</v>
       </c>
       <c r="P11" s="5" t="s">
-        <v>135</v>
+        <v>134</v>
       </c>
       <c r="Q11" s="5" t="s">
-        <v>142</v>
+        <v>141</v>
       </c>
       <c r="R11" s="5" t="s">
-        <v>149</v>
+        <v>148</v>
       </c>
       <c r="S11" s="5" t="s">
-        <v>152</v>
+        <v>151</v>
       </c>
       <c r="T11" s="5" t="s">
-        <v>159</v>
+        <v>158</v>
       </c>
       <c r="U11" s="5" t="s">
-        <v>162</v>
+        <v>161</v>
       </c>
       <c r="V11" s="5">
         <v>100</v>
@@ -9828,7 +9819,7 @@
         <v>72.099999999999994</v>
       </c>
       <c r="C15">
-        <v>75.460000000000008</v>
+        <v>75.5</v>
       </c>
       <c r="D15">
         <v>78.900000000000006</v>
@@ -10647,7 +10638,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:U9"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="L1" sqref="L1:U9"/>
     </sheetView>
   </sheetViews>
@@ -11150,7 +11141,7 @@
         <v>52</v>
       </c>
       <c r="R8" s="5" t="s">
-        <v>166</v>
+        <v>165</v>
       </c>
       <c r="S8" s="5" t="s">
         <v>63</v>
